--- a/data/reports/statistical_report.xlsx
+++ b/data/reports/statistical_report.xlsx
@@ -982,7 +982,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tên sân bay (Hub)</t>
+          <t>Tên sân bay</t>
         </is>
       </c>
     </row>
